--- a/SimulatedData-new/Cauchy/ALLINONE_Cauchy_Results.xlsx
+++ b/SimulatedData-new/Cauchy/ALLINONE_Cauchy_Results.xlsx
@@ -1,19 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pietro\Desktop\Pietro\Politecnico\Tesi\Thesis-Code\SimulatedData-new\Cauchy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A296C20-2E99-46D3-AD8B-E5F311EAB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>n1 =  98 , QR AR(1)</t>
   </si>
@@ -147,13 +140,68 @@
   </si>
   <si>
     <t>MAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , QR AR(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , CQR AR(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , QR AR(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  98 , CQR AR(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , QR AR(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , CQR AR(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , QR AR(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  198 , CQR AR(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , QR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , CQR AR(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , QR AR(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , CQR AR(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , QR AR(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n1 =  998 , CQR AR(3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,461 +527,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="M1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>5.8349999999999999E-3</v>
-      </c>
-      <c r="F2">
+      <c r="E2" t="n">
+        <v>0.005835</v>
+      </c>
+      <c r="F2" t="n">
         <v>5.59999999999996E-3</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>6.1875000000000497E-3</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <f>(B2+B4+B6+B9+B11+B13+B16+B18+B20)/9/20%</f>
         <v>63.888888888888893</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>9.9049999999999798E-3</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>0.00990499999999998</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.06277777777777E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>3.4000000000000701E-3</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <f>(B3+B5+B7+B10+B12+B14+B17+B19+B21)/9/20%</f>
         <v>70.555555555555543</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>1.1285E-2</v>
-      </c>
-      <c r="F4">
+      <c r="E4" t="n">
+        <v>0.011285</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.11428571428571E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1.1361538461538499E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>8.0499999999999704E-3</v>
-      </c>
-      <c r="F5">
+      <c r="E5" t="n">
+        <v>0.00804999999999997</v>
+      </c>
+      <c r="F5" t="n">
         <v>8.7823529411764408E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>3.9000000000000098E-3</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <f>(C2+C4+C6+C9+C11+C13+C16+C18+C20)/9/20%</f>
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>1.4630000000000001E-2</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>0.01463</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.6328571428571401E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1.37153846153847E-2</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <f>(C3+C5+C7+C10+C12+C14+C17+C19+C21)/9/20%</f>
         <v>28.333333333333332</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>9.2599999999999991E-3</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="n">
+        <v>0.00926</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.18714285714285E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>3.1666666666667199E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <f>(D2+D4+D6+D9+D11+D13+D16+D18+D20)/20/9%</f>
         <v>17.777777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="B9" t="n">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>4.9550000000000297E-3</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>0.00495500000000003</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.6999999999999802E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>5.4928571428571899E-3</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <f>(D3+D5+D7+D10+D12+D14+D17+D19+D21)/20/9%</f>
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>4.3499999999999702E-3</v>
-      </c>
-      <c r="F10">
+      <c r="E10" t="n">
+        <v>0.00434999999999997</v>
+      </c>
+      <c r="F10" t="n">
         <v>4.7357142857142398E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>3.4500000000000199E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
+        <v>46</v>
+      </c>
+      <c r="B11" t="n">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>7.7150000000000404E-3</v>
-      </c>
-      <c r="F11">
+      <c r="E11" t="n">
+        <v>0.00771500000000004</v>
+      </c>
+      <c r="F11" t="n">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>7.5187500000000497E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
+        <v>47</v>
+      </c>
+      <c r="B12" t="n">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>4.6999999999999802E-3</v>
-      </c>
-      <c r="F12">
+      <c r="E12" t="n">
+        <v>0.00469999999999998</v>
+      </c>
+      <c r="F12" t="n">
         <v>5.6153846153845699E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>3.00000000000001E-3</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>8.3700000000000406E-3</v>
-      </c>
-      <c r="F13">
+      <c r="E13" t="n">
+        <v>0.00837000000000004</v>
+      </c>
+      <c r="F13" t="n">
         <v>8.1399999999999893E-3</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>8.4466666666667203E-3</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <f>(E2+E4+E6)/3</f>
         <v>1.0583333333333333E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>5.4999999999999797E-3</v>
-      </c>
-      <c r="F14">
+      <c r="E14" t="n">
+        <v>0.00549999999999998</v>
+      </c>
+      <c r="F14" t="n">
         <v>6.2846153846153399E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>4.0428571428571597E-3</v>
       </c>
       <c r="L14" t="s">
         <v>26</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <f>(E3+E5+E7)/3</f>
         <v>9.0716666666666498E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="n">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>4.2099999999999898E-3</v>
-      </c>
-      <c r="F16">
+      <c r="E16" t="n">
+        <v>0.00420999999999999</v>
+      </c>
+      <c r="F16" t="n">
         <v>5.7076923076922704E-3</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>1.6666666666667199E-3</v>
       </c>
       <c r="L16" t="s">
         <v>27</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <f>(E9+E11+E13)/3</f>
         <v>7.0133333333333705E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>5.0499999999999703E-3</v>
-      </c>
-      <c r="F17">
+      <c r="E17" t="n">
+        <v>0.00504999999999997</v>
+      </c>
+      <c r="F17" t="n">
         <v>5.9733333333333001E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>2.2800000000000099E-3</v>
       </c>
       <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <f>(E10+E12+E14)/3</f>
         <v>4.8499999999999767E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00620499999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.8499999999999698E-3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.0000000000012199E-4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="n">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>6.20499999999999E-3</v>
-      </c>
-      <c r="F18">
-        <v>6.8499999999999698E-3</v>
-      </c>
-      <c r="G18">
-        <v>4.0000000000012199E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>7.3949999999999598E-3</v>
-      </c>
-      <c r="F19">
+      <c r="E19" t="n">
+        <v>0.00739499999999996</v>
+      </c>
+      <c r="F19" t="n">
         <v>7.3949999999999598E-3</v>
       </c>
       <c r="G19" t="e">
@@ -942,114 +990,114 @@
       <c r="L19" t="s">
         <v>29</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <f>(E16+E18+E20)/3</f>
         <v>5.5633333333333203E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="B20" t="n">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>6.2749999999999802E-3</v>
-      </c>
-      <c r="F20">
+      <c r="E20" t="n">
+        <v>0.00627499999999998</v>
+      </c>
+      <c r="F20" t="n">
         <v>7.2941176470587904E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>7.5000000000008404E-4</v>
       </c>
       <c r="L20" t="s">
         <v>30</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <f>(E17+E19+E21)/3</f>
         <v>6.5283333333333001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="B21" t="n">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>7.1399999999999702E-3</v>
-      </c>
-      <c r="F21">
+      <c r="E21" t="n">
+        <v>0.00713999999999997</v>
+      </c>
+      <c r="F21" t="n">
         <v>7.1399999999999702E-3</v>
       </c>
       <c r="G21" t="e">
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="L22" t="s">
         <v>31</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <f>(E2+E9+E16)/3</f>
         <v>5.0000000000000062E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="L23" t="s">
         <v>32</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <f>(E3+E10+E17)/3</f>
         <v>6.4349999999999729E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="L25" t="s">
         <v>33</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <f>(E4+E11+E18)/3</f>
         <v>8.4016666666666771E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="L26" t="s">
         <v>34</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <f>(E5+E12+E19)/3</f>
         <v>6.7149999999999701E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="L28" t="s">
         <v>35</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <f>(E6+E13+E20)/3</f>
         <v>9.7583333333333411E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="L29" t="s">
         <v>36</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <f>(E7+E14+E21)/3</f>
         <v>7.2999999999999827E-3</v>
       </c>
